--- a/Excel Docs/Orwell Second War Journal v.1.xlsx
+++ b/Excel Docs/Orwell Second War Journal v.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/795f4455f471edd6/University/Summer 2020/Digital History/Week 6/Orwell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbing\History\Orwell\Digi-Hist_Week-6\Excel Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{2F27612B-55EB-4AF3-8426-C6954164E22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A275D5B9-0813-44CA-842C-D824B33D4CBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC83CE4-EC10-4A41-B72B-398B8F9C3748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ED678B68-97BE-4C6D-9391-009A85D6D1D8}"/>
   </bookViews>
@@ -604,20 +604,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,22 +632,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -971,7 +959,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1030,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1515,71 +1503,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://orwelldiaries.wordpress.com/2012/03/15/15-3-42/" xr:uid="{4C9F62E2-B103-4487-AEE0-1E2AA3B036DE}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://orwelldiaries.wordpress.com/2012/03/22/22-3-42/" xr:uid="{DC795E68-3A2B-4E63-920B-89D731395A47}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://orwelldiaries.wordpress.com/2012/03/27/27-3-42/" xr:uid="{D80C7AD6-CE28-427A-8C89-C37ED53821F6}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://orwelldiaries.wordpress.com/2012/04/01/1-4-42/" xr:uid="{1DC66819-D772-40DD-B3DD-C9D667723230}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://orwelldiaries.wordpress.com/2012/04/03/3-4-42/" xr:uid="{D37FB3A6-5013-4612-B6B6-5466083BB9CD}"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://orwelldiaries.wordpress.com/2012/04/11/11-4-42/" xr:uid="{6A55114F-F691-4ED5-A6CA-D9A42EC29A4A}"/>
-    <hyperlink ref="A11" r:id="rId7" display="https://orwelldiaries.wordpress.com/2012/04/18/18-4-42/" xr:uid="{E1312AB4-9FC8-4C43-B4EF-B9FB35CF7973}"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://orwelldiaries.wordpress.com/2012/04/19/19-4-42/" xr:uid="{B1B7C952-FB4F-4C23-AFD4-8EC0F5C071A3}"/>
-    <hyperlink ref="A13" r:id="rId9" display="https://orwelldiaries.wordpress.com/2012/04/25/25-4-42/" xr:uid="{4EFEBF6A-A93A-4B06-A8A9-7690A5D99DD3}"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://orwelldiaries.wordpress.com/2012/04/27/27-4-42/" xr:uid="{F9A026F2-8051-4D53-8888-E760489199D5}"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://orwelldiaries.wordpress.com/2012/05/06/6-5-42/" xr:uid="{D3D4B2F6-3A36-431B-BBA9-C5C269CF36B4}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://orwelldiaries.wordpress.com/2012/05/08/8-5-42/" xr:uid="{0B013729-C073-4A9C-8D7D-AC7BE0B92EB8}"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://orwelldiaries.wordpress.com/2012/05/11/11-5-42/" xr:uid="{093F1D9F-6491-4C2A-AC9C-6859905F3AC5}"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://orwelldiaries.wordpress.com/2012/05/15/15-5-42/" xr:uid="{F7389B93-FD9A-49DB-A27A-B846C82A0E9C}"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://orwelldiaries.wordpress.com/2012/05/19/19-5-42/" xr:uid="{688B1A97-6E60-4D27-90DE-8E11D7457358}"/>
-    <hyperlink ref="A20" r:id="rId16" display="https://orwelldiaries.wordpress.com/2012/05/21/21-5-42/" xr:uid="{D988E50B-9B25-4719-AFB5-D306C071F036}"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://orwelldiaries.wordpress.com/2012/05/22/22-5-42/" xr:uid="{1BF9CFE3-B07C-465D-8681-61AFD2E87297}"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://orwelldiaries.wordpress.com/2012/05/27/27-5-42/" xr:uid="{5A4548FF-837F-48DB-9B49-4BE10111985D}"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://orwelldiaries.wordpress.com/2012/05/30/30-5-42/" xr:uid="{4847F97B-B636-4136-AD60-41EAB6DACE2E}"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://orwelldiaries.wordpress.com/2012/06/04/4-6-42/" xr:uid="{D1AEB5DA-15EA-43D1-A5F6-8A5911C99643}"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://orwelldiaries.wordpress.com/2012/06/06/6-6-42/" xr:uid="{AC0F5D33-3134-4712-810C-90CDC7E7B4D5}"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://orwelldiaries.wordpress.com/2012/06/07/7-6-42/" xr:uid="{1A4422EE-C960-4445-8683-A57A3B6A556C}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://orwelldiaries.wordpress.com/2012/06/10/10-6-42/" xr:uid="{806AF837-5D45-4FB4-981E-31AAB8434A81}"/>
-    <hyperlink ref="A28" r:id="rId24" display="https://orwelldiaries.wordpress.com/2012/06/11/11-6-42/" xr:uid="{44775A6E-1843-4E0F-A9E2-50E7417C42B1}"/>
-    <hyperlink ref="A29" r:id="rId25" display="https://orwelldiaries.wordpress.com/2012/06/13/13-6-42/" xr:uid="{FB702BD7-3515-4493-97E2-9750CC35EDC4}"/>
-    <hyperlink ref="A30" r:id="rId26" display="https://orwelldiaries.wordpress.com/2012/06/15/15-6-42/" xr:uid="{E70EFE2C-4936-4CF6-93F7-43D7DF0EB1A7}"/>
-    <hyperlink ref="A31" r:id="rId27" display="https://orwelldiaries.wordpress.com/2012/06/21/21-6-42/" xr:uid="{4A6251B3-CB11-4F59-98F9-8E672D0C8EC1}"/>
-    <hyperlink ref="A32" r:id="rId28" display="https://orwelldiaries.wordpress.com/2012/06/24/24-6-42/" xr:uid="{C0AAFD13-A8B8-4FC6-A7D3-E7EE7EBDB7DD}"/>
-    <hyperlink ref="A33" r:id="rId29" display="https://orwelldiaries.wordpress.com/2012/07/01/1-7-42/" xr:uid="{F399EEB9-B00E-4FEA-886A-FBCB5680494D}"/>
-    <hyperlink ref="A34" r:id="rId30" display="https://orwelldiaries.wordpress.com/2012/07/03/3-7-42/" xr:uid="{DBFB1EAC-2D2B-44A0-A9C1-DC054E11A894}"/>
-    <hyperlink ref="A35" r:id="rId31" display="https://orwelldiaries.wordpress.com/2012/07/10/10-7-42/" xr:uid="{992CD475-8A06-4937-ACDB-03796B9DCC19}"/>
-    <hyperlink ref="A36" r:id="rId32" display="https://orwelldiaries.wordpress.com/2012/07/22/22-7-42/" xr:uid="{E8BAE4B1-B65A-4165-A2D9-8ABCFEA4DBB1}"/>
-    <hyperlink ref="A37" r:id="rId33" display="https://orwelldiaries.wordpress.com/2012/07/23/23-7-42/" xr:uid="{39642ECE-E9C9-41A6-83CB-F4CAB7B833DA}"/>
-    <hyperlink ref="A38" r:id="rId34" display="https://orwelldiaries.wordpress.com/2012/07/26/26-7-42/" xr:uid="{B39946AE-0D18-4643-81A7-8C532EAD47D1}"/>
-    <hyperlink ref="A39" r:id="rId35" display="https://orwelldiaries.wordpress.com/2012/07/27/27-7-42/" xr:uid="{A6210525-FFD6-4B29-9E67-3DBD9DC94FBF}"/>
-    <hyperlink ref="A40" r:id="rId36" display="https://orwelldiaries.wordpress.com/2012/07/28/28-7-42/" xr:uid="{CECEEB23-FBB8-4775-BDBB-6E370642F108}"/>
-    <hyperlink ref="A41" r:id="rId37" display="https://orwelldiaries.wordpress.com/2012/08/01/1-8-42/" xr:uid="{DB63E9DF-8746-43E0-AB27-B0BB88ADCA8F}"/>
-    <hyperlink ref="A42" r:id="rId38" display="https://orwelldiaries.wordpress.com/2012/08/03/3-8-42/" xr:uid="{5DC531DD-AB06-4CD6-809C-FBFF7DE16F20}"/>
-    <hyperlink ref="A43" r:id="rId39" display="https://orwelldiaries.wordpress.com/2012/08/04/4-8-42/" xr:uid="{8BC5906A-DCB9-4C8A-B6BD-566845E52747}"/>
-    <hyperlink ref="A44" r:id="rId40" display="https://orwelldiaries.wordpress.com/2012/08/05/5-8-42/" xr:uid="{43A13BFF-77D5-4749-9D9F-83B38A3DA9C5}"/>
-    <hyperlink ref="A45" r:id="rId41" display="https://orwelldiaries.wordpress.com/2012/08/07/7-8-42/" xr:uid="{0834A077-B6B1-4B64-B53E-F2D1EEBDC685}"/>
-    <hyperlink ref="A46" r:id="rId42" display="https://orwelldiaries.wordpress.com/2012/08/09/9-8-42/" xr:uid="{60DFA8DF-4DD5-4AA5-8060-D9E2BE758C5C}"/>
-    <hyperlink ref="A47" r:id="rId43" display="https://orwelldiaries.wordpress.com/2012/08/10/10-8-42/" xr:uid="{4C06787C-BC2E-4C40-BCDF-EE354E6AA4BD}"/>
-    <hyperlink ref="A48" r:id="rId44" display="https://orwelldiaries.wordpress.com/2012/08/12/12-8-42/" xr:uid="{78CFDDC9-0181-4609-949D-F64BEB5F4808}"/>
-    <hyperlink ref="A49" r:id="rId45" display="https://orwelldiaries.wordpress.com/2012/08/14/14-8-42/" xr:uid="{2F50AACE-708A-4E7A-91B2-F921956DF481}"/>
-    <hyperlink ref="A50" r:id="rId46" display="https://orwelldiaries.wordpress.com/2012/08/18/18-8-42/" xr:uid="{57666967-ACF9-41B6-909A-79C57E4634CC}"/>
-    <hyperlink ref="A51" r:id="rId47" display="https://orwelldiaries.wordpress.com/2012/08/19/19-8-42/" xr:uid="{6B5C2FCB-B316-46E3-89B7-11548B36F4C3}"/>
-    <hyperlink ref="A52" r:id="rId48" display="https://orwelldiaries.wordpress.com/2012/08/22/22-8-42/" xr:uid="{5C3F4CAA-0108-4D42-B022-C8EA8DC4D9BB}"/>
-    <hyperlink ref="A53" r:id="rId49" display="https://orwelldiaries.wordpress.com/2012/08/25/25-8-42/" xr:uid="{7E0A1378-4953-4EB4-B928-5432CB75EA0D}"/>
-    <hyperlink ref="A54" r:id="rId50" display="https://orwelldiaries.wordpress.com/2012/08/27/27-8-42/" xr:uid="{50F189DD-4BA9-4D40-8BB1-03C8CAA93E58}"/>
-    <hyperlink ref="A55" r:id="rId51" display="https://orwelldiaries.wordpress.com/2012/08/29/29-8-42/" xr:uid="{C5F1C94A-EB8C-4A72-ADE7-961C7AA2FA31}"/>
-    <hyperlink ref="A56" r:id="rId52" display="https://orwelldiaries.wordpress.com/2012/09/07/7-9-42/" xr:uid="{5D17FFFA-38E6-459A-B775-F4DA33FB0E67}"/>
-    <hyperlink ref="A57" r:id="rId53" display="https://orwelldiaries.wordpress.com/2012/09/09/10-9-42/" xr:uid="{4558F6F8-4AEA-4892-9515-7C920B9A6ED4}"/>
-    <hyperlink ref="A58" r:id="rId54" display="https://orwelldiaries.wordpress.com/2012/09/15/15-9-42/" xr:uid="{4A336118-92D3-4294-841C-ED22405B07BD}"/>
-    <hyperlink ref="A59" r:id="rId55" display="https://orwelldiaries.wordpress.com/2012/09/21/21-9-42/" xr:uid="{4E364065-AD2A-4491-AF87-37B409BE9795}"/>
-    <hyperlink ref="A60" r:id="rId56" display="https://orwelldiaries.wordpress.com/2012/09/22/22-9-42/" xr:uid="{EC9FBDCD-FD24-45F9-9BC9-B84A77D631F1}"/>
-    <hyperlink ref="A61" r:id="rId57" display="https://orwelldiaries.wordpress.com/2012/09/28/28-9-42/" xr:uid="{2D0C1BC1-E6C3-4B27-A524-8133BC2DA629}"/>
-    <hyperlink ref="A62" r:id="rId58" display="https://orwelldiaries.wordpress.com/2012/10/04/5-10-42/" xr:uid="{E467615B-AF55-407F-9CCB-FD5A52C27158}"/>
-    <hyperlink ref="A63" r:id="rId59" display="https://orwelldiaries.wordpress.com/2012/10/10/10-10-42/" xr:uid="{C490847C-7D7A-467F-9BE6-4F316DC6E5BC}"/>
-    <hyperlink ref="A64" r:id="rId60" display="https://orwelldiaries.wordpress.com/2012/10/11/11-10-42/" xr:uid="{D51DF117-AB25-49C7-8C8F-35B8658153D5}"/>
-    <hyperlink ref="A65" r:id="rId61" display="https://orwelldiaries.wordpress.com/2012/10/15/15-10-42/" xr:uid="{8EC60C9D-2E8F-4669-8842-3BC87472672A}"/>
-    <hyperlink ref="A66" r:id="rId62" display="https://orwelldiaries.wordpress.com/2012/11/15/15-11-42/" xr:uid="{CC4E8369-51D5-40E6-A0BB-598D95CAF598}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId63"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>